--- a/01_Input/00_CO Validation/Mauritania - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mauritania - Energy Projects.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_C62C97D498F5584690CCA54F8BCE493A782AB40B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A7EE15-A8DE-4836-8610-78E126B62FE9}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_C62C97D498F5584690CCA54F8BCE493A782AB40B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC6BF2E-5CC8-40B5-BEF2-08CCC03908F5}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
+    <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId4"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,6 +35,31 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Malle Diagana</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{D29BD5C3-FC9D-476D-8FAB-64BCA65B10B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Malle Diagana:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Malle Diagana</author>
@@ -55,7 +84,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Malle Diagana</author>
@@ -81,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>Project ID</t>
   </si>
@@ -135,6 +164,9 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Energy Budget</t>
   </si>
   <si>
     <t>Projet d’Electrification  Rurale en Zones Isolées (PERZI)</t>
@@ -167,9 +199,6 @@
     <t>Paix Verte</t>
   </si>
   <si>
-    <t>157 000 USD</t>
-  </si>
-  <si>
     <t>Clean Cooking</t>
   </si>
   <si>
@@ -186,6 +215,9 @@
   </si>
   <si>
     <t>PBF</t>
+  </si>
+  <si>
+    <t>157 000 USD</t>
   </si>
   <si>
     <t xml:space="preserve">Comment </t>
@@ -536,18 +568,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -560,6 +580,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,11 +896,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B03F61A-FEBE-41BF-B816-26D800B496FA}">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" ht="230.25" customHeight="1">
+      <c r="A2" s="6">
+        <v>132688</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8">
+        <v>329490000</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>600000</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11">
+        <v>205000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="138">
+      <c r="A3" s="5">
+        <v>131201</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5">
+        <v>157000</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="E7" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{9881B807-1CF6-4327-9219-D8081C065C5F}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{FEA6C5C9-6E00-4A8C-B965-864821347CA8}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{3734A83F-DD58-458D-AB51-E92ED851EC54}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{F432FE89-6294-4BFE-B844-804B4F213AE2}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{B16165AA-3F8F-4E9F-960D-17D4B551D6DA}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B41DCD2-52B2-4A9B-95A2-7A66160ED382}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613ED9FB-C461-49DB-AB90-E297C9CF2AAB}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,79 +1133,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="230.25" customHeight="1">
       <c r="A2" s="6">
         <v>132688</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>18</v>
+      <c r="B2" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="8">
         <v>329490000</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -965,21 +1214,21 @@
         <v>600000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
         <v>23</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -991,11 +1240,11 @@
         <v>131201</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
@@ -1016,12 +1265,12 @@
         <v>31</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="26" t="s">
-        <v>23</v>
+      <c r="L3" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>27</v>
@@ -1075,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -1127,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="230.25" customHeight="1">
@@ -1135,35 +1384,35 @@
         <v>132688</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="12">
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="138">
@@ -1171,11 +1420,11 @@
         <v>131201</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
@@ -1187,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>30</v>
@@ -1223,7 +1472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1B1C6E-D3EB-4AAD-9ED1-4EDF36D926F7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1235,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1250,160 +1499,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
-        <v>41</v>
+      <c r="A2" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
-        <v>46</v>
+      <c r="A5" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="24"/>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>57</v>
+      <c r="A10" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="25"/>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
-        <v>62</v>
+      <c r="A12" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="26"/>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="26"/>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1418,26 +1667,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -1686,14 +1915,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D0A2130-59E1-4C8C-9507-AD992A2D3622}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9824D86-CD8E-4C80-AD68-80CD748124FC}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2D63058-172D-45A6-9C40-B2F4CA34E52B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D0A2130-59E1-4C8C-9507-AD992A2D3622}"/>
 </file>
--- a/01_Input/00_CO Validation/Mauritania - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mauritania - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_C62C97D498F5584690CCA54F8BCE493A782AB40B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC6BF2E-5CC8-40B5-BEF2-08CCC03908F5}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_C62C97D498F5584690CCA54F8BCE493A782AB40B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{617B0890-952F-4B85-9E9D-CC4C3608ECF0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Project ID</t>
   </si>
@@ -145,34 +145,90 @@
     <t>Gender (% female)</t>
   </si>
   <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>Projet d’Electrification  Rurale en Zones Isolées (PERZI)</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>1. Percentage of populations, disaggregated by sex, using adapted techniques and methods for environmental management, resilience and adaptation, and risk and disaster management.
+2. Coverage rate of the national territory in rural electrification based on renewable energies in support of UNDP
+3: Rate of reduction in the number of water-borne diseases</t>
+  </si>
+  <si>
+    <t>The objective of PERZI is to create the conditions for integrated community development through Access to Sustainable Energy, particularly innovative off-grid electrification solutions.
+The program is being launched, with feasibility studies of 200 localities and the ongoing electrification of 2 pilot villages.
+The budget allocated to electrification is
+$205,000,000. The planned electrification of isolated localities provides for: a mini solar power plant with battery storage, a Low Voltage (LV) network with a Medium Voltage (MT) network possibly, connections to the LV network, metering and a year of maintenance of the equipment after their provisional acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouvernment, UNDP, </t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Paix Verte</t>
+  </si>
+  <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d’initiatives d’utilisation des énergies alternatives soutenues </t>
+  </si>
+  <si>
+    <t>300 HH</t>
+  </si>
+  <si>
+    <t>The Biogas initiative is a component of the “Green Peace” project. It aims to provide low-income households with a source of energy
+green at affordable costs while leading an awareness campaign of comparative advantages
+of the exploitation of organic waste and its advantages in preserving the environment and
+contribution to the fight against global warming</t>
+  </si>
+  <si>
+    <t>PBF</t>
+  </si>
+  <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>SEH Taxonomy</t>
-  </si>
-  <si>
-    <t>RISE Taxonomy</t>
-  </si>
-  <si>
-    <t>Flagship</t>
-  </si>
-  <si>
-    <t>Indirect Category</t>
-  </si>
-  <si>
-    <t>Indirect Taxonomy</t>
-  </si>
-  <si>
-    <t>Energy Budget</t>
-  </si>
-  <si>
-    <t>Projet d’Electrification  Rurale en Zones Isolées (PERZI)</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
   </si>
   <si>
     <t xml:space="preserve">1. Pourcentage des populations, désagrégés par sexe utilisant des techniques et méthodes adaptées de gestion de l’environnement, de résilience et d’adaptions et de gestion des risques et catastrophes.
@@ -187,37 +243,13 @@
 205 000 000 USD. L'électrification de localités isolées projetées prévoit : une minicentrale solaire avec stockage batterie, un réseau Basse Tension (BT) avec un réseau Moyenne Tension (MT) éventuellement, des Branchements au réseau BT, des comptages et une année de maintenance des équipements après leur réception provisoire </t>
   </si>
   <si>
-    <t xml:space="preserve">Gouvernment, UNDP, </t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Paix Verte</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre d’initiatives d’utilisation des énergies alternatives soutenues </t>
-  </si>
-  <si>
-    <t>300 HH</t>
+    <t>157 000 USD</t>
   </si>
   <si>
     <t>L'initiative Biogaz est une composante du projet "Paix Verte". Elle vise à fournir aux ménages à faible revenu une source d’énergie 
 verte à des couts accessibles tout en menant une campagne de sensibilisation des avantages comparatifs 
 de l’exploitations des déchets organiques et ses avantages dans la préservation de l’environnement et la 
 contribution à la lutte contre le réchauffement climatique</t>
-  </si>
-  <si>
-    <t>PBF</t>
-  </si>
-  <si>
-    <t>157 000 USD</t>
   </si>
   <si>
     <t xml:space="preserve">Comment </t>
@@ -247,52 +279,64 @@
     <t>300 ménages sont ciblés par ce projet</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -301,7 +345,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -316,13 +363,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -331,19 +375,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -359,12 +403,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,52 +445,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -517,32 +544,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -550,48 +595,73 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B03F61A-FEBE-41BF-B816-26D800B496FA}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,187 +982,251 @@
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="230.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="T1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="230.25" customHeight="1">
+      <c r="A2" s="4">
         <v>132688</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8">
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6">
         <v>329490000</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>600000</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="22"/>
+      <c r="U2" s="30"/>
+      <c r="W2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9">
         <v>205000000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="138">
-      <c r="A3" s="5">
+    <row r="3" spans="1:31" ht="138">
+      <c r="A3" s="3">
         <v>131201</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5">
-        <v>157000</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="30"/>
+      <c r="W3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="Z3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="E7" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{9881B807-1CF6-4327-9219-D8081C065C5F}">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3" xr:uid="{9881B807-1CF6-4327-9219-D8081C065C5F}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{FEA6C5C9-6E00-4A8C-B965-864821347CA8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 Q2:Q3" xr:uid="{FEA6C5C9-6E00-4A8C-B965-864821347CA8}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{3734A83F-DD58-458D-AB51-E92ED851EC54}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3 P2:P3" xr:uid="{3734A83F-DD58-458D-AB51-E92ED851EC54}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{F432FE89-6294-4BFE-B844-804B4F213AE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3 AA3" xr:uid="{F432FE89-6294-4BFE-B844-804B4F213AE2}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{B16165AA-3F8F-4E9F-960D-17D4B551D6DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3 N2:N3" xr:uid="{B16165AA-3F8F-4E9F-960D-17D4B551D6DA}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{C5223EDF-EC14-457E-919E-C0BAA6A7EFB6}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{6BAF89A9-CE59-4341-A0F8-484A27A96FA2}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{DED6FC1B-046F-49F3-BA88-D03D93FA92D5}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{61E4183E-03FE-4EF9-9158-E243B7305D97}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{D6F3F8B6-3437-4E37-9235-ADB4DD9BDF52}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{F08283A1-B239-4E79-9EA3-E0DFEB65A0A9}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{55773362-3036-409C-B4D8-57789124AA43}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,7 +1236,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B41DCD2-52B2-4A9B-95A2-7A66160ED382}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
@@ -1133,161 +1267,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="7"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="230.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>132688</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8">
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6">
         <v>329490000</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>600000</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="138">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>131201</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="O3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="H6" s="9"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1314,7 +1448,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A287AA95-669F-445A-AE35-DA97FB49A6C5}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
@@ -1348,111 +1482,111 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="230.25" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>132688</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12">
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="138">
+      <c r="A3" s="3">
+        <v>131201</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="138">
-      <c r="A3" s="5">
-        <v>131201</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="H6" s="9"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,7 +1596,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
@@ -1486,187 +1620,217 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="23"/>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" t="s">
+      <c r="B3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B5" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B6" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B7" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="25"/>
-      <c r="B11" t="s">
+      <c r="B9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="26" t="s">
+      <c r="B10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B11" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="26"/>
-      <c r="B13" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B12" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="26"/>
-      <c r="B14" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B13" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="31" t="s">
         <v>74</v>
       </c>
+      <c r="B16" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -1915,28 +2079,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D0A2130-59E1-4C8C-9507-AD992A2D3622}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2D63058-172D-45A6-9C40-B2F4CA34E52B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1944,5 +2088,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2D63058-172D-45A6-9C40-B2F4CA34E52B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D0A2130-59E1-4C8C-9507-AD992A2D3622}"/>
 </file>